--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:17:16+00:00</t>
+    <t>2024-09-26T08:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-workflow-status.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-workflow-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:30:44+00:00</t>
+    <t>2024-09-26T08:39:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
